--- a/biology/Zoologie/Courlis_corlieu/Courlis_corlieu.xlsx
+++ b/biology/Zoologie/Courlis_corlieu/Courlis_corlieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Numenius phaeopus
 Le Courlis corlieu (Numenius phaeopus) est une espèce d'oiseaux limicoles de la famille des scolopacidés.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Courlis corlieu est un courlis de taille moyenne (40 à 46 cm) au bec arqué et au dessin de la tête caractéristique : fine raie sommitale jaunâtre, parfois peu marquée, mais les longs sourcils plus pâles contrastent avec les larges raies latérales sombres de la calotte et les lores sombres. Les plumes brun sombre des parties supérieures présentent des liserés et dentelures variables, chamois ou blanchâtres. Le cou et les parties inférieures sont chamois très clair, voire blanchâtres. Les stries brunes du cou et de la poitrine évoluent en chevrons sur les flancs.
-Les juvéniles arborent un plumage très proche de celui des adultes mais les scapulaires, les couvertures alaires et tertiaires présentent de nettes dentelures chamois[1].
+Les juvéniles arborent un plumage très proche de celui des adultes mais les scapulaires, les couvertures alaires et tertiaires présentent de nettes dentelures chamois.
 Le Courlis corlieu est beaucoup plus petit que les Courlis cendré (Numenius arquata), Courlis à long bec (Numenius americanus) et Courlis de Sibérie (Numenius madagascariensis) et a un bec proportionnellement plus court. Il ressemble davantage au Courlis d'Alaska (Numenius tahitiensis) qui présente un dessin de la tête assez voisin.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce est constituée des cinq sous-espèces selon la classification de référence du Congrès ornithologique international  (version 10.1, 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette espèce est constituée des cinq sous-espèces selon la classification de référence du Congrès ornithologique international  (version 10.1, 2020) :
 Numenius phaeopus islandicus  C.L. Brehm 1831 ;
 Numenius phaeopus phaeopus  (Linnaeus) 1758 ;
 Numenius phaeopus alboaxillaris  Lowe 1921 ;
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Courlis corlieu niche dans la toundra et les landes à bruyères subarctiques, souvent près de la limite des arbres.
 En migration, il fait halte le long des côtes, sur les zones humides intérieures et dans les prés couverts de végétation basse.
@@ -613,7 +631,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Courlis corlieu se nourrit isolément ou en petits groupes mais peut se rassembler en reposoirs importants. Il picore plus à la surface que les autres courlis mais sonde cependant la surface de temps à autre.
 </t>
@@ -644,7 +664,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit essentiellement d'invertébrés tels de petits crabes.
 </t>
@@ -675,9 +697,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Creux peu profond dans les feuilles mortes, sous un roncier ou autre (4 œufs/1 ponte/mars-aout)[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Creux peu profond dans les feuilles mortes, sous un roncier ou autre (4 œufs/1 ponte/mars-aout).
 </t>
         </is>
       </c>
